--- a/inferences/jesuitas-entrada-desc.xlsx
+++ b/inferences/jesuitas-entrada-desc.xlsx
@@ -765,11 +765,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16091026 ou 1607"}}</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1165,11 +1161,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17070718"}}</t>
-        </is>
-      </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1202,11 +1194,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "antes de, nesta data agradece o geral por lhe ter permitido entrar na companhia"}}</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1503,11 +1491,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "o cat\u00e1logo do Jap\u00e3o de 1697 diz 1675"}}</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1738,11 +1722,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Goa?"}}</t>
-        </is>
-      </c>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1874,11 +1854,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "pela segunda vez"}}</t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2274,11 +2250,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "volta a ser recebido na Companhia"}}</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2476,11 +2448,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "entra como frade coadjutor"}, "value": {"comment": "suponho que na \u00cdndia"}}</t>
-        </is>
-      </c>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2513,11 +2481,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "suponho que na \u00cdndia"}}</t>
-        </is>
-      </c>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2715,11 +2679,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Pequim?"}}</t>
-        </is>
-      </c>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2785,11 +2745,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "G\u00e9nova?"}}</t>
-        </is>
-      </c>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2987,11 +2943,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "venu au service des P\u00e8res? recebido quatro meses antes da sua morte"}}</t>
-        </is>
-      </c>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -3420,11 +3372,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "era um letrado chin\u00eas que se tornou catequista e depois jesu\u00edta"}}</t>
-        </is>
-      </c>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -3754,11 +3702,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1567"}}</t>
-        </is>
-      </c>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -4154,11 +4098,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "se for mesmo ele"}}</t>
-        </is>
-      </c>
+      <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -4785,11 +4725,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17401120"}}</t>
-        </is>
-      </c>
+      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -4822,11 +4758,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Macau?"}}</t>
-        </is>
-      </c>
+      <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -4892,11 +4824,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "La date de son E. est aussi variable, 16 ou 26 sept. 1682., JS 134, 417 dit 16 sept. 1683."}}</t>
-        </is>
-      </c>
+      <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -5028,11 +4956,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16800902"}}</t>
-        </is>
-      </c>
+      <c r="G137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -5197,11 +5121,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "era j\u00e1 padre"}}</t>
-        </is>
-      </c>
+      <c r="G142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -5399,11 +5319,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16991031"}}</t>
-        </is>
-      </c>
+      <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -5436,11 +5352,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "inscreve-se a 8 de Julho"}}</t>
-        </is>
-      </c>
+      <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -5869,11 +5781,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"original": "gallo-belge"}}</t>
-        </is>
-      </c>
+      <c r="G162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -5939,11 +5847,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Fran\u00e7a? @wikidata:Q142"}}</t>
-        </is>
-      </c>
+      <c r="G164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -6042,11 +5946,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "vice prov\u00edncia de Portugal"}}</t>
-        </is>
-      </c>
+      <c r="G167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -6079,11 +5979,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "admitido na Companhia depois de torturado pela f\u00e9?"}}</t>
-        </is>
-      </c>
+      <c r="G168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -6677,11 +6573,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16960918"}}</t>
-        </is>
-      </c>
+      <c r="G186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -6978,11 +6870,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Lyon? @wikidata:Q456"}}</t>
-        </is>
-      </c>
+      <c r="G195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -7147,11 +7035,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17321231"}}</t>
-        </is>
-      </c>
+      <c r="G200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -7349,11 +7233,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16800422"}}</t>
-        </is>
-      </c>
+      <c r="G206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -7683,11 +7563,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "alternativa"}}</t>
-        </is>
-      </c>
+      <c r="G216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -8083,11 +7959,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1729"}}</t>
-        </is>
-      </c>
+      <c r="G228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -8153,11 +8025,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1689"}}</t>
-        </is>
-      </c>
+      <c r="G230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -8355,11 +8223,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 19 ou 28"}}</t>
-        </is>
-      </c>
+      <c r="G236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -8726,11 +8590,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "cerca de"}}</t>
-        </is>
-      </c>
+      <c r="G247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -8928,11 +8788,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "segundo Pf."}}</t>
-        </is>
-      </c>
+      <c r="G253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -8965,11 +8821,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1663"}}</t>
-        </is>
-      </c>
+      <c r="G254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -9068,11 +8920,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "a 15, 23 ou 25"}}</t>
-        </is>
-      </c>
+      <c r="G257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -9138,11 +8986,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "novi\u00e7o"}}</t>
-        </is>
-      </c>
+      <c r="G259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -9439,11 +9283,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "diz que esteve em miss\u00e3o num semestre em 1681, n\u00e3o est\u00e1 no cat\u00e1logo de 1683"}}</t>
-        </is>
-      </c>
+      <c r="G268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -9641,11 +9481,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G274" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16661211"}}</t>
-        </is>
-      </c>
+      <c r="G274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -9777,11 +9613,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17221128"}}</t>
-        </is>
-      </c>
+      <c r="G278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -10115,11 +9947,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16460000"}}</t>
-        </is>
-      </c>
+      <c r="G288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -10482,11 +10310,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "se for ele"}}</t>
-        </is>
-      </c>
+      <c r="G299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -10552,11 +10376,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "estava j\u00e1 no noviciado"}}</t>
-        </is>
-      </c>
+      <c r="G301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -10756,7 +10576,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>talvez tenha saído durante o noviciado extra_info: {"value": {"comment": "para a China"}}</t>
+          <t>talvez tenha saído durante o noviciado</t>
         </is>
       </c>
     </row>
@@ -11055,11 +10875,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17290802"}}</t>
-        </is>
-      </c>
+      <c r="G316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -11356,11 +11172,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "aparece inscrito, mas depois o seu nome \u00e9 repetio em \u00c9vora, 16970925, ter\u00e1 sa\u00eddo no entretanto?"}}</t>
-        </is>
-      </c>
+      <c r="G325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -11393,11 +11205,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "o cat\u00e1logo de 1717 diz 17170509, a primeira data vem do cat\u00e1logo de 1734"}}</t>
-        </is>
-      </c>
+      <c r="G326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -11529,11 +11337,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G330" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "para a China"}}</t>
-        </is>
-      </c>
+      <c r="G330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -11599,11 +11403,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G332" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1634"}}</t>
-        </is>
-      </c>
+      <c r="G332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -11671,7 +11471,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>depois de libertado da escravatura extra_info: {"date": {"comment": "[depois de 1615 que \u00e9 a data da persegui\u00e7\u00e3o ao padre Sebasti\u00e3o Fernandes- JRC]"}}</t>
+          <t>depois de libertado da escravatura</t>
         </is>
       </c>
     </row>
@@ -12234,11 +12034,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G351" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "catequista"}}</t>
-        </is>
-      </c>
+      <c r="G351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -12271,11 +12067,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G352" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16730930"}}</t>
-        </is>
-      </c>
+      <c r="G352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -12374,11 +12166,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G355" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "no mar, pela data de embarque seria em Lisboa?", "original": "in mari"}}</t>
-        </is>
-      </c>
+      <c r="G355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -12411,11 +12199,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G356" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1581 segundo Wicki"}}</t>
-        </is>
-      </c>
+      <c r="G356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -12547,11 +12331,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G360" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16320000"}}</t>
-        </is>
-      </c>
+      <c r="G360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -12980,11 +12760,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G373" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Toulouse? @wikidata:Q7880"}}</t>
-        </is>
-      </c>
+      <c r="G373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -13149,11 +12925,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "em 1758 n\u00e3o era ainda Padre"}}</t>
-        </is>
-      </c>
+      <c r="G378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -13384,11 +13156,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G385" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 15721228"}}</t>
-        </is>
-      </c>
+      <c r="G385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -13454,11 +13222,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G387" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "cerca de"}}</t>
-        </is>
-      </c>
+      <c r="G387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -13689,11 +13453,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G394" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17490202"}}</t>
-        </is>
-      </c>
+      <c r="G394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
@@ -13792,11 +13552,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G397" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 30 ou 29"}}</t>
-        </is>
-      </c>
+      <c r="G397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -13829,11 +13585,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G398" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1 de novembro"}}</t>
-        </is>
-      </c>
+      <c r="G398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
@@ -13866,11 +13618,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G399" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17480000"}}</t>
-        </is>
-      </c>
+      <c r="G399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -14134,11 +13882,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G407" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17361104"}}</t>
-        </is>
-      </c>
+      <c r="G407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">

--- a/inferences/jesuitas-entrada-desc.xlsx
+++ b/inferences/jesuitas-entrada-desc.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet_name_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_name_1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
